--- a/TEMP.xlsx
+++ b/TEMP.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed Mosaad\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08113543-9F2C-4AFA-8F61-E57166F8FC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E453015B-2A39-49C0-A4C9-C71496DD7E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABBF5BA3-6670-4B03-B059-29F8ADF6DD47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+  <si>
+    <t>Category-AR</t>
+  </si>
   <si>
     <t>Product-Name-AR</t>
   </si>
@@ -53,6 +58,9 @@
     <t>PRICE-AR</t>
   </si>
   <si>
+    <t>Category-EN</t>
+  </si>
+  <si>
     <t>Product-Name-EN</t>
   </si>
   <si>
@@ -65,52 +73,124 @@
     <t>Product-Img</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>الأعلى مبيعا</t>
+  </si>
+  <si>
     <t>بطاط فرايد تشكن</t>
   </si>
   <si>
+    <t>صحن بطاطس مغطا بصوص الثوم والجبن السائل مع قطع الدجاج المقليه والمقرمشة</t>
+  </si>
+  <si>
+    <t>20.00 ريال</t>
+  </si>
+  <si>
+    <t>Top selling</t>
+  </si>
+  <si>
+    <t>Fried chicken fries</t>
+  </si>
+  <si>
+    <t>A plate of potatoes topped with garlic sauce and liquid cheese with fried and crispy chicken pieces</t>
+  </si>
+  <si>
     <t>20.00 SAR</t>
   </si>
   <si>
-    <t>صحن بطاطس مغطا بصوص الثوم والجبن السائل مع قطع الدجاج المقليه والمقرمشة</t>
+    <t>https://apetitomenu.fra1.cdn.digitaloceanspaces.com/prod/media/e023aada-8f7a-44ed-b380-71ff40154821/conversions/88-optimized.jpg</t>
   </si>
   <si>
     <t>تشكن ستربس</t>
   </si>
   <si>
+    <t>٥ قطع الدجاج المقليه تقدم مع خلطة الثوم</t>
+  </si>
+  <si>
+    <t>23.00 ريال</t>
+  </si>
+  <si>
+    <t>Chicken Strips</t>
+  </si>
+  <si>
+    <t>5 pieces of fried chicken served with garlic mixture</t>
+  </si>
+  <si>
     <t>23.00 SAR</t>
   </si>
   <si>
-    <t>٥ قطع الدجاج المقليه تقدم مع خلطة الثوم</t>
-  </si>
-  <si>
-    <t>الأعلى مبيعا</t>
+    <t>https://apetitomenu.fra1.cdn.digitaloceanspaces.com/prod/media/82a2f191-146d-416d-a69e-22881505c839/conversions/Smoked-Turkey-400-optimized.jpg</t>
   </si>
   <si>
     <t>شورما فريج</t>
   </si>
   <si>
+    <t>شورما دجاج، خبز صاج صغير مع خلطة الثوم و الطحينيه و المخلل والبطاطس (668 سعرة حرارية)</t>
+  </si>
+  <si>
+    <t>9.00 ريال</t>
+  </si>
+  <si>
+    <t>Shawarma Freej</t>
+  </si>
+  <si>
+    <t>Chicken shawarma, small saj bread with garlic mixture, tahini, pickles and potatoes (668 calories)</t>
+  </si>
+  <si>
     <t>9.00 SAR</t>
   </si>
   <si>
-    <t>شورما دجاج، خبز صاج صغير مع خلطة الثوم و الطحينيه و المخلل والبطاطس (668 سعرة حرارية)</t>
+    <t>https://apetitomenu.fra1.cdn.digitaloceanspaces.com/prod/media/2fc55f5e-88bc-49fa-9698-d53390d574da/conversions/turkish-400-optimized.jpg</t>
+  </si>
+  <si>
+    <t>ساندويشات</t>
   </si>
   <si>
     <t>شورما طنطل</t>
   </si>
   <si>
+    <t>شورما دجاج، خبز صاج كبير مع خلطة الثوم و المخلل و البطاطس (404 سعرة حرارية)</t>
+  </si>
+  <si>
+    <t>13.00 ريال</t>
+  </si>
+  <si>
+    <t>Sandwiches</t>
+  </si>
+  <si>
+    <t>Shawarma tantal</t>
+  </si>
+  <si>
+    <t>Chicken shawarma, large saj bread with garlic mixture, pickles and potatoes (404 calories)</t>
+  </si>
+  <si>
     <t>13.00 SAR</t>
   </si>
   <si>
-    <t>شورما دجاج، خبز صاج كبير مع خلطة الثوم و المخلل و البطاطس (404 سعرة حرارية)</t>
+    <t>https://apetitomenu.fra1.cdn.digitaloceanspaces.com/prod/media/97f796ac-570f-4ece-8dec-eab5563cedf2/conversions/Cheese-Bate-optimized.jpg</t>
   </si>
   <si>
     <t>شورما مدحدح</t>
   </si>
   <si>
+    <t>شورما دجاج، خبز عربي مع خلطة الثوم و المخلل و البطاطس (576 سعرة حرارية)</t>
+  </si>
+  <si>
+    <t>8.00 ريال</t>
+  </si>
+  <si>
+    <t>Shawarma Mdahdah</t>
+  </si>
+  <si>
+    <t>Chicken shawarma, Arabic bread with garlic mixture, pickles and potatoes (576 calories)</t>
+  </si>
+  <si>
     <t>8.00 SAR</t>
   </si>
   <si>
-    <t>شورما دجاج، خبز عربي مع خلطة الثوم و المخلل و البطاطس (576 سعرة حرارية)</t>
+    <t>https://apetitomenu.fra1.cdn.digitaloceanspaces.com/prod/media/7d7be597-a4a9-4df4-a8a2-893f41c47eae/conversions/Untitled-1-optimized.jpg</t>
   </si>
   <si>
     <t>شورما صامولي</t>
@@ -119,104 +199,29 @@
     <t>شورما دجاج، خبز صامولي مع خلطة الثوم و جبنة التشيدر السائلة مع قطع الهالبينو الحاره (588 سعرة حرارية)</t>
   </si>
   <si>
-    <t>ساندويشات</t>
+    <t>Shawarma samuli</t>
+  </si>
+  <si>
+    <t>Chicken shawarma, samuli bread with garlic mixture, liquid cheddar cheese and spicy jalapeno pieces (588 calories)</t>
+  </si>
+  <si>
+    <t>https://apetitomenu.fra1.cdn.digitaloceanspaces.com/prod/media/9f072892-7024-42c5-a0e4-21174f38e34c/conversions/%D9%83%D9%88%D8%B1%D8%AF%D9%86-%D8%A8%D9%84%D9%88-optimized.jpg</t>
+  </si>
+  <si>
+    <t>10.00 ريال</t>
   </si>
   <si>
     <t>10.00 SAR</t>
   </si>
   <si>
-    <t>20.00 ريال</t>
-  </si>
-  <si>
-    <t>23.00 ريال</t>
-  </si>
-  <si>
-    <t>9.00 ريال</t>
-  </si>
-  <si>
-    <t>13.00 ريال</t>
-  </si>
-  <si>
-    <t>8.00 ريال</t>
-  </si>
-  <si>
-    <t>https://apetitomenu.fra1.cdn.digitaloceanspaces.com/prod/media/e023aada-8f7a-44ed-b380-71ff40154821/conversions/88-optimized.jpg</t>
-  </si>
-  <si>
-    <t>https://apetitomenu.fra1.cdn.digitaloceanspaces.com/prod/media/82a2f191-146d-416d-a69e-22881505c839/conversions/Smoked-Turkey-400-optimized.jpg</t>
-  </si>
-  <si>
-    <t>https://apetitomenu.fra1.cdn.digitaloceanspaces.com/prod/media/2fc55f5e-88bc-49fa-9698-d53390d574da/conversions/turkish-400-optimized.jpg</t>
-  </si>
-  <si>
-    <t>Category-AR</t>
-  </si>
-  <si>
-    <t>Category-EN</t>
-  </si>
-  <si>
-    <t>10.00 ريال</t>
-  </si>
-  <si>
-    <t>https://apetitomenu.fra1.cdn.digitaloceanspaces.com/prod/media/97f796ac-570f-4ece-8dec-eab5563cedf2/conversions/Cheese-Bate-optimized.jpg</t>
-  </si>
-  <si>
-    <t>https://apetitomenu.fra1.cdn.digitaloceanspaces.com/prod/media/7d7be597-a4a9-4df4-a8a2-893f41c47eae/conversions/Untitled-1-optimized.jpg</t>
-  </si>
-  <si>
-    <t>https://apetitomenu.fra1.cdn.digitaloceanspaces.com/prod/media/9f072892-7024-42c5-a0e4-21174f38e34c/conversions/%D9%83%D9%88%D8%B1%D8%AF%D9%86-%D8%A8%D9%84%D9%88-optimized.jpg</t>
-  </si>
-  <si>
     <t>https://apetitomenu.fra1.cdn.digitaloceanspaces.com/prod/media/903b88cf-bbb0-4ccf-96d3-11bfb933931c/conversions/Cole-slaw-optimized.jpg</t>
-  </si>
-  <si>
-    <t>Top selling</t>
-  </si>
-  <si>
-    <t>Sandwiches</t>
-  </si>
-  <si>
-    <t>Fried chicken fries</t>
-  </si>
-  <si>
-    <t>Chicken Strips</t>
-  </si>
-  <si>
-    <t>Shawarma Freej</t>
-  </si>
-  <si>
-    <t>Shawarma tantal</t>
-  </si>
-  <si>
-    <t>Shawarma Mdahdah</t>
-  </si>
-  <si>
-    <t>Shawarma samuli</t>
-  </si>
-  <si>
-    <t>A plate of potatoes topped with garlic sauce and liquid cheese with fried and crispy chicken pieces</t>
-  </si>
-  <si>
-    <t>5 pieces of fried chicken served with garlic mixture</t>
-  </si>
-  <si>
-    <t>Chicken shawarma, small saj bread with garlic mixture, tahini, pickles and potatoes (668 calories)</t>
-  </si>
-  <si>
-    <t>Chicken shawarma, large saj bread with garlic mixture, pickles and potatoes (404 calories)</t>
-  </si>
-  <si>
-    <t>Chicken shawarma, Arabic bread with garlic mixture, pickles and potatoes (576 calories)</t>
-  </si>
-  <si>
-    <t>Chicken shawarma, samuli bread with garlic mixture, liquid cheddar cheese and spicy jalapeno pieces (588 calories)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,7 +272,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -585,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA3726A-DF53-4870-A4E2-3229E232D640}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -603,236 +608,260 @@
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -849,9 +878,5 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93CBA678-0453-4F0E-B2A5-B61D02BEF93A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93CBA678-0453-4F0E-B2A5-B61D02BEF93A}"/>
 </file>